--- a/output/Bartels 3/declaratie Bartels 3.xlsx
+++ b/output/Bartels 3/declaratie Bartels 3.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Directie Financiën, Control &amp; Administratie                     Administratief Service Centrum</t>
   </si>
@@ -127,25 +127,28 @@
     <t>Postcode + Woonplaats</t>
   </si>
   <si>
+    <t>Laan 2</t>
+  </si>
+  <si>
+    <t>2222BB Utreg</t>
+  </si>
+  <si>
+    <t>IBAN nummer verplicht in te vullen</t>
+  </si>
+  <si>
+    <t>BSN-nummer :</t>
+  </si>
+  <si>
+    <t>NL22INGB0000000000</t>
+  </si>
+  <si>
+    <t>SWIFT / BIC code verplicht in te vullen</t>
+  </si>
+  <si>
+    <t>Telefoon werk:</t>
+  </si>
+  <si>
     <t>INGBNL2A</t>
-  </si>
-  <si>
-    <t>Laan 2</t>
-  </si>
-  <si>
-    <t>IBAN nummer verplicht in te vullen</t>
-  </si>
-  <si>
-    <t>BSN-nummer :</t>
-  </si>
-  <si>
-    <t>SWIFT / BIC code verplicht in te vullen</t>
-  </si>
-  <si>
-    <t>Telefoon werk:</t>
-  </si>
-  <si>
-    <t>NL22INGB0000000000</t>
   </si>
   <si>
     <t>Referentie:</t>
@@ -2046,7 +2049,7 @@
     </row>
     <row customHeight="1" ht="20.25" r="15" spans="1:24">
       <c r="A15" s="110" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15" s="111" t="n"/>
       <c r="C15" s="111" t="n"/>
@@ -2067,7 +2070,7 @@
     </row>
     <row customHeight="1" ht="16.5" r="16" spans="1:24">
       <c r="A16" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="28" t="n"/>
       <c r="C16" s="28" t="n"/>
@@ -2078,7 +2081,7 @@
       <c r="H16" s="144" t="n"/>
       <c r="I16" s="21" t="n"/>
       <c r="J16" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="22" t="n"/>
@@ -2091,7 +2094,7 @@
     </row>
     <row customHeight="1" ht="20.25" r="17" spans="1:24">
       <c r="A17" s="110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="111" t="n"/>
       <c r="C17" s="111" t="n"/>
@@ -2113,7 +2116,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="18" spans="1:24">
       <c r="A18" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="28" t="n"/>
       <c r="C18" s="28" t="n"/>
@@ -2123,7 +2126,7 @@
       <c r="G18" s="28" t="n"/>
       <c r="H18" s="28" t="n"/>
       <c r="J18" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" s="45" t="n"/>
       <c r="L18" s="45" t="n"/>
@@ -2136,7 +2139,7 @@
     </row>
     <row customHeight="1" ht="21.75" r="19" spans="1:24">
       <c r="A19" s="110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="111" t="n"/>
       <c r="C19" s="111" t="n"/>
@@ -2177,15 +2180,15 @@
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="21" s="28" spans="1:24">
       <c r="A21" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="28" t="n"/>
       <c r="C21" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="28" t="n"/>
       <c r="E21" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="28" t="n"/>
       <c r="G21" s="28" t="n"/>
@@ -2194,30 +2197,30 @@
       <c r="J21" s="28" t="n"/>
       <c r="K21" s="28" t="n"/>
       <c r="L21" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21" s="28" t="n"/>
       <c r="N21" s="145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="145" t="n"/>
       <c r="P21" s="28" t="n"/>
       <c r="Q21" s="145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R21" s="145" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" spans="1:24">
       <c r="A22" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="29" t="n"/>
       <c r="C22" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="144" t="n"/>
       <c r="E22" s="144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="144" t="n"/>
       <c r="G22" s="144" t="n"/>
@@ -2239,11 +2242,11 @@
       </c>
       <c r="B23" s="33" t="n"/>
       <c r="C23" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="132" t="n"/>
       <c r="E23" s="126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="127" t="n"/>
       <c r="G23" s="127" t="n"/>
@@ -2290,7 +2293,7 @@
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
       <c r="C25" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="132" t="n"/>
       <c r="E25" s="126" t="n"/>
@@ -2337,7 +2340,7 @@
       <c r="A27" s="32" t="n"/>
       <c r="B27" s="33" t="n"/>
       <c r="C27" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="132" t="n"/>
       <c r="E27" s="126" t="n"/>
@@ -2384,7 +2387,7 @@
       <c r="A29" s="32" t="n"/>
       <c r="B29" s="33" t="n"/>
       <c r="C29" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="132" t="n"/>
       <c r="E29" s="126" t="n"/>
@@ -2431,7 +2434,7 @@
       <c r="A31" s="32" t="n"/>
       <c r="B31" s="33" t="n"/>
       <c r="C31" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="132" t="n"/>
       <c r="E31" s="126" t="n"/>
@@ -2478,7 +2481,7 @@
       <c r="A33" s="32" t="n"/>
       <c r="B33" s="33" t="n"/>
       <c r="C33" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" s="132" t="n"/>
       <c r="E33" s="126" t="n"/>
@@ -2525,7 +2528,7 @@
       <c r="A35" s="32" t="n"/>
       <c r="B35" s="33" t="n"/>
       <c r="C35" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" s="132" t="n"/>
       <c r="E35" s="126" t="n"/>
@@ -2570,13 +2573,13 @@
     </row>
     <row customHeight="1" ht="25.5" r="37" spans="1:24">
       <c r="A37" s="42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="42" t="n"/>
       <c r="C37" s="144" t="n"/>
       <c r="D37" s="144" t="n"/>
       <c r="E37" s="118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="119" t="n"/>
       <c r="G37" s="119" t="n"/>
@@ -2587,7 +2590,7 @@
       <c r="L37" s="35" t="n"/>
       <c r="M37" s="144" t="n"/>
       <c r="N37" s="124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O37" s="124" t="n"/>
       <c r="P37" s="144" t="n"/>
@@ -2620,7 +2623,7 @@
       <c r="C39" s="144" t="n"/>
       <c r="D39" s="144" t="n"/>
       <c r="E39" s="118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" s="119" t="n"/>
       <c r="G39" s="119" t="n"/>
@@ -2631,7 +2634,7 @@
       <c r="L39" s="35" t="n"/>
       <c r="M39" s="144" t="n"/>
       <c r="N39" s="124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O39" s="124" t="n"/>
       <c r="P39" s="144" t="n"/>
@@ -2671,7 +2674,7 @@
       <c r="J41" s="119" t="n"/>
       <c r="K41" s="35" t="n"/>
       <c r="L41" s="123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M41" s="123" t="n"/>
       <c r="N41" s="123" t="n"/>
@@ -2716,7 +2719,7 @@
       <c r="J43" s="119" t="n"/>
       <c r="K43" s="35" t="n"/>
       <c r="L43" s="123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M43" s="123" t="n"/>
       <c r="N43" s="123" t="n"/>
@@ -2773,7 +2776,7 @@
     </row>
     <row customHeight="1" ht="30" r="46" spans="1:24">
       <c r="A46" s="157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="157" t="n"/>
       <c r="C46" s="157" t="n"/>
@@ -2801,13 +2804,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20.25" r="47" s="45" spans="1:24">
       <c r="A47" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" s="144" t="n"/>
       <c r="G47" s="45" t="n"/>
@@ -2857,7 +2860,7 @@
     </row>
     <row customHeight="1" ht="16.5" r="49" spans="1:24">
       <c r="A49" s="120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="120" t="n"/>
       <c r="C49" s="120" t="n"/>
@@ -2885,7 +2888,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="50" spans="1:24">
       <c r="A50" s="158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="159" t="n"/>
       <c r="C50" s="159" t="n"/>
@@ -2933,28 +2936,28 @@
     </row>
     <row customHeight="1" ht="15" r="52" spans="1:24">
       <c r="A52" s="163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="156" t="n"/>
       <c r="C52" s="163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D52" s="156" t="n"/>
       <c r="E52" s="49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F52" s="170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G52" s="171" t="n"/>
       <c r="H52" s="164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I52" s="165" t="n"/>
       <c r="J52" s="165" t="n"/>
       <c r="K52" s="166" t="n"/>
       <c r="L52" s="155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M52" s="155" t="n"/>
       <c r="N52" s="155" t="n"/>
@@ -2969,7 +2972,7 @@
       </c>
       <c r="B53" s="68" t="n"/>
       <c r="C53" s="67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" s="68" t="n"/>
       <c r="E53" s="50" t="n"/>
@@ -2979,7 +2982,7 @@
       </c>
       <c r="G53" s="70" t="n"/>
       <c r="H53" s="74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I53" s="75" t="n"/>
       <c r="J53" s="75" t="n"/>
@@ -3134,7 +3137,7 @@
     </row>
     <row customHeight="1" ht="16.5" r="61" spans="1:24">
       <c r="A61" s="77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="78" t="n"/>
       <c r="C61" s="78" t="n"/>
@@ -3146,7 +3149,7 @@
       </c>
       <c r="G61" s="168" t="n"/>
       <c r="H61" s="160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I61" s="161" t="n"/>
       <c r="J61" s="161" t="n"/>
@@ -3184,7 +3187,7 @@
     </row>
     <row customHeight="1" ht="15" r="63" spans="1:24">
       <c r="A63" s="60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="61" t="n"/>
       <c r="C63" s="61" t="n"/>
@@ -3195,7 +3198,7 @@
       <c r="H63" s="61" t="n"/>
       <c r="I63" s="62" t="n"/>
       <c r="J63" s="63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K63" s="63" t="n"/>
       <c r="L63" s="63" t="n"/>
@@ -3208,7 +3211,7 @@
     </row>
     <row customHeight="1" ht="21" r="64" spans="1:24">
       <c r="A64" s="89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="90" t="n"/>
       <c r="C64" s="90" t="n"/>
@@ -3219,7 +3222,7 @@
       <c r="H64" s="90" t="n"/>
       <c r="I64" s="91" t="n"/>
       <c r="J64" s="90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K64" s="90" t="n"/>
       <c r="L64" s="90" t="n"/>
@@ -3252,7 +3255,7 @@
     </row>
     <row customHeight="1" ht="11.25" r="66" spans="1:24">
       <c r="A66" s="92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="93" t="n"/>
       <c r="C66" s="93" t="n"/>
@@ -3263,7 +3266,7 @@
       <c r="H66" s="93" t="n"/>
       <c r="I66" s="94" t="n"/>
       <c r="J66" s="101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K66" s="101" t="n"/>
       <c r="L66" s="101" t="n"/>
